--- a/07-julio/6-portal-cliente/fenix/FENIX.xlsx
+++ b/07-julio/6-portal-cliente/fenix/FENIX.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\06-junio\3_FENIX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\07-julio\6-portal-cliente\fenix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A7DC85-0678-4464-AEAB-E628C1957D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09BBEA2-C8CC-45BD-B9EA-8608C3F05F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>FENIX</t>
   </si>
@@ -71,7 +71,19 @@
     <t>OS</t>
   </si>
   <si>
-    <t>JUNIO Y SAC 2025</t>
+    <t>JULIO 2025</t>
+  </si>
+  <si>
+    <t>REM 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REM 4 </t>
+  </si>
+  <si>
+    <t>REM 5</t>
+  </si>
+  <si>
+    <t>REM 8</t>
   </si>
 </sst>
 </file>
@@ -149,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -159,7 +171,6 @@
     </xf>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -487,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,18 +543,18 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>50827.17</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>49970.21</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="15">
         <f>+E5-F5</f>
         <v>856.95999999999913</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16">
+      <c r="H5" s="15"/>
+      <c r="I5" s="15">
         <v>1665673.85</v>
       </c>
       <c r="J5" s="2"/>
@@ -579,41 +590,41 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="5">
-        <v>1617281.6</v>
+        <v>1701729.6</v>
       </c>
       <c r="C7" s="5">
         <v>0</v>
       </c>
       <c r="D7" s="5">
         <f>+B7+C7</f>
-        <v>1617281.6</v>
+        <v>1701729.6</v>
       </c>
       <c r="E7" s="5">
-        <v>76957.440000000002</v>
+        <v>63611.38</v>
       </c>
       <c r="F7" s="5">
         <v>0</v>
       </c>
       <c r="G7" s="5">
         <f>+E7+F7</f>
-        <v>76957.440000000002</v>
+        <v>63611.38</v>
       </c>
       <c r="H7" s="5">
         <f>+D7+G7</f>
-        <v>1694239.04</v>
+        <v>1765340.98</v>
       </c>
       <c r="I7" s="5">
         <f>+H7</f>
-        <v>1694239.04</v>
+        <v>1765340.98</v>
       </c>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A8" s="8"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -625,7 +636,7 @@
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A9" s="8"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -637,185 +648,185 @@
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9">
         <f t="shared" ref="B10:I10" si="0">SUM(B7:B9)</f>
-        <v>1617281.6</v>
-      </c>
-      <c r="C10" s="10">
+        <v>1701729.6</v>
+      </c>
+      <c r="C10" s="9">
         <f t="shared" ref="C10:H10" si="1">SUM(C7:C9)</f>
         <v>0</v>
       </c>
       <c r="D10" s="5">
         <f t="shared" si="1"/>
-        <v>1617281.6</v>
-      </c>
-      <c r="E10" s="10">
+        <v>1701729.6</v>
+      </c>
+      <c r="E10" s="9">
         <f t="shared" si="1"/>
-        <v>76957.440000000002</v>
-      </c>
-      <c r="F10" s="10">
+        <v>63611.38</v>
+      </c>
+      <c r="F10" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
-        <v>76957.440000000002</v>
+        <v>63611.38</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="1"/>
-        <v>1694239.04</v>
-      </c>
-      <c r="I10" s="10">
+        <v>1765340.98</v>
+      </c>
+      <c r="I10" s="9">
         <f t="shared" si="0"/>
-        <v>1694239.04</v>
-      </c>
-      <c r="J10" s="10"/>
+        <v>1765340.98</v>
+      </c>
+      <c r="J10" s="9"/>
     </row>
     <row r="12" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>50827.17</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <v>49970.21</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="15">
         <f>+E12-F12</f>
         <v>856.95999999999913</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16">
+      <c r="H12" s="15"/>
+      <c r="I12" s="15">
         <v>2512793.37</v>
       </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="11"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>1617281.6</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>808640.8</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <f>+B14+C14</f>
         <v>2425922.4000000004</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <v>76957.440000000002</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="12">
         <v>38478.720000000001</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="12">
         <f>+E14+F14</f>
         <v>115436.16</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="12">
         <f>+D14+G14</f>
         <v>2541358.5600000005</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="12">
         <f>+H14</f>
         <v>2541358.5600000005</v>
       </c>
-      <c r="J14" s="13"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15">
-        <f t="shared" ref="B17:I17" si="2">SUM(B14:B16)</f>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14">
+        <f t="shared" ref="B17" si="2">SUM(B14:B16)</f>
         <v>1617281.6</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="14">
         <f t="shared" ref="C17:H17" si="3">SUM(C14:C16)</f>
         <v>808640.8</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <f t="shared" si="3"/>
         <v>2425922.4000000004</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="14">
         <f t="shared" si="3"/>
         <v>76957.440000000002</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="14">
         <f t="shared" si="3"/>
         <v>38478.720000000001</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="12">
         <f t="shared" si="3"/>
         <v>115436.16</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="12">
         <f t="shared" si="3"/>
         <v>2541358.5600000005</v>
       </c>
-      <c r="I17" s="15">
-        <f t="shared" ref="I17:J17" si="4">SUM(I14:I16)</f>
+      <c r="I17" s="14">
+        <f t="shared" ref="I17" si="4">SUM(I14:I16)</f>
         <v>2541358.5600000005</v>
       </c>
-      <c r="J17" s="15"/>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
@@ -830,133 +841,149 @@
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1579895.36</v>
+      </c>
+      <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1579895.36</v>
+      </c>
+      <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1579895.36</v>
+      </c>
+      <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="6">
+        <v>1741729.6</v>
+      </c>
+      <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
